--- a/JuneCRMProject/target/test-classes/Automation Objectives.xlsx
+++ b/JuneCRMProject/target/test-classes/Automation Objectives.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sno</t>
   </si>
@@ -61,6 +61,33 @@
   </si>
   <si>
     <t>Send Email Reports &amp; Screenshots to Respective Team Members</t>
+  </si>
+  <si>
+    <t>CoreFrameWork Integrated with any Application</t>
+  </si>
+  <si>
+    <t>Make suite xls Files</t>
+  </si>
+  <si>
+    <t>Build the TestNG Classes</t>
+  </si>
+  <si>
+    <t>Build the BaseTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init Properties Objects &amp; Excels Objects in BaseTest </t>
+  </si>
+  <si>
+    <t>Build Dataproviders &amp; logic to read the testdata from excel</t>
+  </si>
+  <si>
+    <t>Build the DriverScript</t>
+  </si>
+  <si>
+    <t>Check the runmode for the Datasets in Excel Data Sheet</t>
+  </si>
+  <si>
+    <t>Passed Some class references which are present in BaseTest Classs into DriverScript Class like (Object Repositories &amp; child Environment ) etc …. By using Getters &amp; Setters</t>
   </si>
 </sst>
 </file>
@@ -119,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -132,6 +159,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,129 +456,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="C14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
